--- a/Manufacturing/SnowduinoNullJLC_CPL.xlsx
+++ b/Manufacturing/SnowduinoNullJLC_CPL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/benjamingombala/Desktop/Snowduino Null/Production Files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{891BBE48-ADE1-344F-9FFD-69DC19D74566}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{583712A2-9CF8-EA45-837A-28E809C1DEE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1280,8 +1280,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="125" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="125" workbookViewId="0">
+      <selection activeCell="B77" sqref="B77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3097,7 +3097,7 @@
         <v>137</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>129</v>
+        <v>111</v>
       </c>
       <c r="C76" s="3" t="s">
         <v>71</v>
